--- a/output/xlsx/RF001 - Autenticar Usuário--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuário--GTP-.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">System: </t>
   </si>
   <si>
-    <t>RGP-Competências</t>
+    <t>GTI-Competências</t>
   </si>
   <si>
     <t/>
@@ -101,34 +101,34 @@
     <t>Usuário do Sistema seleciona um nome de usuário sugerido, digita a senha e clica no botão entrar</t>
   </si>
   <si>
+    <t>SYSTEM alerta que o nome de usuário e/ou senha estão incorretos</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuário logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema preenche os campos e clica no botão entrar</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>SYSTEM alerta que o CAS (sistema de autorização login-senha) está fora do ar</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuário logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema preenche os campos e clica no botão entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o nome de usuário e/ou senha estão incorretos</t>
-  </si>
-  <si>
-    <t>TC3</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissões de acesso e escrita) está fora do ar</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s" s="6">
         <v>2</v>
@@ -735,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s" s="4">
         <v>14</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1179,7 +1179,7 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>
